--- a/fuentes/contenidos/grado10/guion07/Escaleta CN_10_07_CO_F.xlsx
+++ b/fuentes/contenidos/grado10/guion07/Escaleta CN_10_07_CO_F.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16600" windowHeight="9440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="231">
   <si>
     <t>Asignatura</t>
   </si>
@@ -396,13 +399,334 @@
   </si>
   <si>
     <t>Mecánica de fluidos</t>
+  </si>
+  <si>
+    <t>¿Qué es un fluido?</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra las características, tipos y propiedades de los fluidos</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F13-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>La teoría cinético molecular y los fluidos</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta la relación entre el movimiento de las moléculas y los tipos de fluidos</t>
+  </si>
+  <si>
+    <t>Preguntar acerca de imágenes en formato gif</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>¿Qué sabes sobre fluidos?</t>
+  </si>
+  <si>
+    <t>Actividad de introducción que plantea preguntas relacionadas con fluidos</t>
+  </si>
+  <si>
+    <t>Se usarán imágenes de recurso de 4º ESO Tecnología\la neumática y la hidráulica\los fluidos</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>La presión</t>
+  </si>
+  <si>
+    <t>Interactivo que profundiza sobre el concepto de presión y sus aplicaciones</t>
+  </si>
+  <si>
+    <t>Se usarán imágenes de recurso F1 de 4º ESO FísicaQuímica\la hidrostática\la presión</t>
+  </si>
+  <si>
+    <t>Recurso F6B-01</t>
+  </si>
+  <si>
+    <t>Actividad que planeta preguntas sobre el concepto de presión</t>
+  </si>
+  <si>
+    <t>Recurso M5A-02</t>
+  </si>
+  <si>
+    <t>La presión en los líquidos</t>
+  </si>
+  <si>
+    <t>La presión al interior de un fluido</t>
+  </si>
+  <si>
+    <t>La presión en los gases</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta un modelo básico sobre la presión que genera un gas</t>
+  </si>
+  <si>
+    <t>La presión en un gas</t>
+  </si>
+  <si>
+    <t>Recurso F12-01</t>
+  </si>
+  <si>
+    <t>La presión atmosférica</t>
+  </si>
+  <si>
+    <t>La presión de la atmósfera terrestre</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Consolidación</t>
+  </si>
+  <si>
+    <t>Actividad sobre el concepto de presión</t>
+  </si>
+  <si>
+    <t>Identifica elementos básicos sobre el concepto de presión</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reforzar el concepto de presión al interior de un fluido</t>
+  </si>
+  <si>
+    <t>4º ESO</t>
+  </si>
+  <si>
+    <t>FQ</t>
+  </si>
+  <si>
+    <t>La hidrostática</t>
+  </si>
+  <si>
+    <t>¿De qué depende la presión hidrostática?</t>
+  </si>
+  <si>
+    <t>FQ_10_05</t>
+  </si>
+  <si>
+    <t>Simulador FQ</t>
+  </si>
+  <si>
+    <t>Actividad para resolver problemas de cálculo y responder preguntas sobre la presión hidrostática</t>
+  </si>
+  <si>
+    <t>Calcula la presión hidrostática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El concepto de presión    </t>
+  </si>
+  <si>
+    <t>Fluidos en reposo</t>
+  </si>
+  <si>
+    <t>El principio de Pascal y la prensa hidráulica</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Impulso y momento lineal</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema Mecánica de fluidos</t>
+  </si>
+  <si>
+    <t>Evalua tus conocimientos sobre el tema Mecánica de fluidos</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M7A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso M102AP-01</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema Mecánica de fluidos</t>
+  </si>
+  <si>
+    <t>El principio de Arquímedes y la flotación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluidos en movimiento </t>
+  </si>
+  <si>
+    <t>Ecuación de continuidad</t>
+  </si>
+  <si>
+    <t>Principio de Bernoulli</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Actividad que guía el trabajo colaborativo con base en el concepto de presión hidrostática</t>
+  </si>
+  <si>
+    <t>Proyecto: la presión hidrostática</t>
+  </si>
+  <si>
+    <t>La presión hidrostática</t>
+  </si>
+  <si>
+    <t>Interactivo sobre las características de la presión atmosférica</t>
+  </si>
+  <si>
+    <t>Comprende el fundamento de la prensa hidráulica</t>
+  </si>
+  <si>
+    <t>Actividad que permite comprender el funcionamiento de la prensa hidráulica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El concepto de presión</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Calcula la presión hidrostática</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El principio de Pascal</t>
+  </si>
+  <si>
+    <t>Actividad sobre el principio de Pascal</t>
+  </si>
+  <si>
+    <t>El principio de Pascal</t>
+  </si>
+  <si>
+    <t>Interactivo que  presenta el principio de Pascal</t>
+  </si>
+  <si>
+    <t>Recurso F12-02</t>
+  </si>
+  <si>
+    <t>Competencias: verificación del principio de Pascal</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar un experimento para comprender el fundamento del principio de Pascal</t>
+  </si>
+  <si>
+    <t>No se propone como proyecto</t>
+  </si>
+  <si>
+    <t>El principio de Bernoulli</t>
+  </si>
+  <si>
+    <t>Recurso F13-02</t>
+  </si>
+  <si>
+    <t>Interactivo que permite presentar y analizar el principio de Bernoulli a través de un fenómeno de la naturaleza</t>
+  </si>
+  <si>
+    <t>Haciendo uso del principio de Bernoulli</t>
+  </si>
+  <si>
+    <t>Actividad para resolver problemas de cálculo sobre el principio de Bernoulli</t>
+  </si>
+  <si>
+    <t>Recurso M5A-03</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El principio de Arquímedes</t>
+  </si>
+  <si>
+    <t>Actividad sobre el principio de Arquímedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El principio de Pascal    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El principio de Arquímedes    </t>
+  </si>
+  <si>
+    <t>El principio de Arquímedes</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra cómo funciona el principio de Arquímedes con obejtos de densidad variable sumergidos en un líquido</t>
+  </si>
+  <si>
+    <t>Analiza el principio de flotabilidad de los cuerpos</t>
+  </si>
+  <si>
+    <t>Practica con cuerpos sumergidos y cuerpos flotantes</t>
+  </si>
+  <si>
+    <t>Actividad con animación que permite comprobar porqué los cuerpos flotan o se hunden de acuerdo con el principio de Arquímedes</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar un experimento para comprender el fundamento del principio de Arquímedes</t>
+  </si>
+  <si>
+    <t>Competencias: verificación del principio de Arquímedes</t>
+  </si>
+  <si>
+    <t>Actividad para resolver problemas de cálculo sobre la ecuación de continuidad</t>
+  </si>
+  <si>
+    <t>Calculo de caudal en diferentes contextos</t>
+  </si>
+  <si>
+    <t>Recurso M5A-04</t>
+  </si>
+  <si>
+    <t>La ecuación de continuidad</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reforzar los conceptos relacionados con la ecuación de continuidad</t>
+  </si>
+  <si>
+    <t>Recurso F4-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Fluidos en movimiento</t>
+  </si>
+  <si>
+    <t>Actividad acerca de los conceptos y principios de los fluidos en movimiento</t>
+  </si>
+  <si>
+    <t>Cambiar español ibérico, incluir elementos para tiempos y grupos y desarrollo del mismo (preguntar como se adapta)</t>
+  </si>
+  <si>
+    <t>Competencias: el principio de Bernoulli</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar un experimento para comprender el fundamento del principio de Bernoulli</t>
+  </si>
+  <si>
+    <t>Recurso F13-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +753,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,10 +900,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -635,34 +1059,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,8 +1110,113 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="85">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,6 +1230,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja2"/>
+      <sheetName val="DATOS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,11 +1534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U284"/>
+  <dimension ref="A1:U289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1021,9 +1547,9 @@
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.1640625" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="110" customWidth="1"/>
@@ -1035,99 +1561,99 @@
     <col min="17" max="17" width="20.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.83203125" customWidth="1"/>
     <col min="21" max="21" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -1139,24 +1665,52 @@
       <c r="C3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="25"/>
+      <c r="G3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="N3" s="25"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="27"/>
+      <c r="P3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>10</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="15">
       <c r="A4" s="18" t="s">
@@ -1168,24 +1722,54 @@
       <c r="C4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8"/>
+      <c r="G4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="10"/>
+      <c r="O4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>10</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="15">
       <c r="A5" s="18" t="s">
@@ -1197,24 +1781,54 @@
       <c r="C5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
+      <c r="G5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="21">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="10"/>
+      <c r="N5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>10</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="15">
       <c r="A6" s="18" t="s">
@@ -1226,24 +1840,56 @@
       <c r="C6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8"/>
+      <c r="G6" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="27"/>
+      <c r="O6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>10</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="15">
       <c r="A7" s="18" t="s">
@@ -1255,24 +1901,54 @@
       <c r="C7" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
+      <c r="G7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="10"/>
+      <c r="P7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>10</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="15">
       <c r="A8" s="18" t="s">
@@ -1284,24 +1960,56 @@
       <c r="C8" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
+      <c r="D8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="21">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="27"/>
+      <c r="O8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="15">
       <c r="A9" s="18" t="s">
@@ -1313,24 +2021,56 @@
       <c r="C9" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8"/>
+      <c r="D9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="21">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="10"/>
+      <c r="P9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>10</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="15">
       <c r="A10" s="18" t="s">
@@ -1342,24 +2082,56 @@
       <c r="C10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
+      <c r="D10" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="21">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="27"/>
+      <c r="P10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="15">
       <c r="A11" s="18" t="s">
@@ -1371,24 +2143,54 @@
       <c r="C11" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
+      <c r="D11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="21">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="27"/>
+      <c r="P11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="15">
       <c r="A12" s="18" t="s">
@@ -1400,24 +2202,54 @@
       <c r="C12" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
+      <c r="D12" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="21">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="10"/>
+      <c r="P12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="15">
       <c r="A13" s="18" t="s">
@@ -1429,24 +2261,54 @@
       <c r="C13" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8"/>
+      <c r="D13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="21">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="10"/>
+      <c r="P13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>10</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="15">
       <c r="A14" s="18" t="s">
@@ -1458,24 +2320,54 @@
       <c r="C14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
+      <c r="D14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="21">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="10"/>
+      <c r="P14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="15">
       <c r="A15" s="18" t="s">
@@ -1487,24 +2379,54 @@
       <c r="C15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
+      <c r="D15" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="21">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="27"/>
+      <c r="O15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="15">
       <c r="A16" s="18" t="s">
@@ -1516,24 +2438,54 @@
       <c r="C16" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
+      <c r="D16" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="21">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="10"/>
+      <c r="P16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="15">
       <c r="A17" s="18" t="s">
@@ -1545,24 +2497,54 @@
       <c r="C17" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
+      <c r="D17" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="21">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="10"/>
+      <c r="P17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="15">
       <c r="A18" s="18" t="s">
@@ -1574,24 +2556,54 @@
       <c r="C18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
+      <c r="D18" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="21">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="27"/>
+      <c r="P18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="U18" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="15">
       <c r="A19" s="18" t="s">
@@ -1603,24 +2615,54 @@
       <c r="C19" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8"/>
+      <c r="D19" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="21">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="10"/>
+      <c r="P19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>10</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
@@ -1632,24 +2674,54 @@
       <c r="C20" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
+      <c r="D20" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="21">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="10"/>
+      <c r="P20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>10</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="U20" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
@@ -1661,24 +2733,54 @@
       <c r="C21" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8"/>
+      <c r="D21" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="21">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="10"/>
+      <c r="P21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>10</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="15">
       <c r="A22" s="18" t="s">
@@ -1690,24 +2792,54 @@
       <c r="C22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
+      <c r="D22" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="21">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="27"/>
+      <c r="P22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>10</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="15">
       <c r="A23" s="18" t="s">
@@ -1719,24 +2851,54 @@
       <c r="C23" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
+      <c r="D23" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="21">
+        <v>21</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="27"/>
+      <c r="P23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>10</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
@@ -1748,24 +2910,54 @@
       <c r="C24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="21">
+        <v>22</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="10"/>
+      <c r="O24" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S24" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="15">
       <c r="A25" s="18" t="s">
@@ -1777,24 +2969,54 @@
       <c r="C25" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="21">
+        <v>23</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="10"/>
+      <c r="N25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S25" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="15">
       <c r="A26" s="18" t="s">
@@ -1806,24 +3028,54 @@
       <c r="C26" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="21">
+        <v>24</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="10"/>
+      <c r="N26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S26" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="U26" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
@@ -1835,149 +3087,329 @@
       <c r="C27" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="21">
+        <v>25</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="N27" s="8"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="10"/>
+      <c r="P27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>10</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S27" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:21" ht="15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="E28" s="34"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
+      <c r="G28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="21">
+        <v>26</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="10"/>
+      <c r="P28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="27"/>
     </row>
     <row r="29" spans="1:21" ht="15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="E29" s="34"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
+      <c r="G29" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="21">
+        <v>27</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="10"/>
+      <c r="P29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="33">
+        <v>10</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="E30" s="34"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="6"/>
+      <c r="G30" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="21">
+        <v>28</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="10"/>
+      <c r="P30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="33">
+        <v>10</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="31" spans="1:21" ht="15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="34"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
+      <c r="G31" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="21">
+        <v>29</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="10"/>
+      <c r="P31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="33">
+        <v>10</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="34"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="6"/>
+      <c r="G32" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="21">
+        <v>30</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="10"/>
+      <c r="P32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="33">
+        <v>10</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="9"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="5"/>
       <c r="J33" s="23"/>
       <c r="K33" s="7"/>
@@ -1993,14 +3425,14 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="9"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="21"/>
       <c r="I34" s="5"/>
       <c r="J34" s="23"/>
       <c r="K34" s="7"/>
@@ -2016,14 +3448,14 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" ht="15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="5"/>
       <c r="J35" s="23"/>
       <c r="K35" s="7"/>
@@ -2692,7 +4124,7 @@
       <c r="G64" s="16"/>
       <c r="H64" s="9"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="17"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="7"/>
       <c r="L64" s="6"/>
       <c r="M64" s="8"/>
@@ -2715,7 +4147,7 @@
       <c r="G65" s="16"/>
       <c r="H65" s="9"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="17"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="7"/>
       <c r="L65" s="6"/>
       <c r="M65" s="8"/>
@@ -2738,7 +4170,7 @@
       <c r="G66" s="16"/>
       <c r="H66" s="9"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="17"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="7"/>
       <c r="L66" s="6"/>
       <c r="M66" s="8"/>
@@ -2761,7 +4193,7 @@
       <c r="G67" s="16"/>
       <c r="H67" s="9"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="17"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="7"/>
       <c r="L67" s="6"/>
       <c r="M67" s="8"/>
@@ -2784,7 +4216,7 @@
       <c r="G68" s="16"/>
       <c r="H68" s="9"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="17"/>
+      <c r="J68" s="23"/>
       <c r="K68" s="7"/>
       <c r="L68" s="6"/>
       <c r="M68" s="8"/>
@@ -2843,11 +4275,121 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1"/>
-    <row r="73" spans="1:21" hidden="1"/>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
+    <row r="71" spans="1:21" ht="15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="10"/>
+    </row>
+    <row r="72" spans="1:21" ht="15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="10"/>
+    </row>
+    <row r="73" spans="1:21" ht="15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="10"/>
+    </row>
+    <row r="74" spans="1:21" ht="15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="10"/>
+    </row>
+    <row r="75" spans="1:21" ht="15">
+      <c r="A75" s="4"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="10"/>
+    </row>
     <row r="77" spans="1:21" hidden="1"/>
     <row r="78" spans="1:21" hidden="1"/>
     <row r="79" spans="1:21" hidden="1"/>
@@ -2856,196 +4398,196 @@
     <row r="82" spans="1:1" hidden="1"/>
     <row r="83" spans="1:1" hidden="1"/>
     <row r="84" spans="1:1" hidden="1"/>
-    <row r="85" spans="1:1" hidden="1">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" hidden="1">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" hidden="1">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" hidden="1">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" hidden="1">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-    </row>
+    <row r="85" spans="1:1" hidden="1"/>
+    <row r="86" spans="1:1" hidden="1"/>
+    <row r="87" spans="1:1" hidden="1"/>
+    <row r="88" spans="1:1" hidden="1"/>
+    <row r="89" spans="1:1" hidden="1"/>
     <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1">
       <c r="A121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" hidden="1">
+      <c r="A122" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" hidden="1">
+      <c r="A123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" hidden="1">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" hidden="1">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" hidden="1">
+      <c r="A126" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1"/>
-    <row r="123" spans="1:1" hidden="1"/>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
     <row r="127" spans="1:1" hidden="1"/>
     <row r="128" spans="1:1" hidden="1"/>
     <row r="129" hidden="1"/>
@@ -3204,11 +4746,22 @@
     <row r="282" hidden="1"/>
     <row r="283" hidden="1"/>
     <row r="284" hidden="1"/>
+    <row r="285" hidden="1"/>
+    <row r="286" hidden="1"/>
+    <row r="287" hidden="1"/>
+    <row r="288" hidden="1"/>
+    <row r="289" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3223,47 +4776,65 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N70</xm:sqref>
+          <xm:sqref>N3:N27 N33:N75</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A70</xm:sqref>
+          <xm:sqref>A3:A75</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K70 I3:I70 P3:P70</xm:sqref>
+          <xm:sqref>I33:I75 K33:K75 I3:I27 K3:K27 P3:P27 P33:P75</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L70</xm:sqref>
+          <xm:sqref>L3:L27 L33:L75</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M70</xm:sqref>
+          <xm:sqref>M3:M27 M33:M75</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I28:I32 K28:K32 P28:P32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>M28:M32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L28:L32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>N28:N32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
